--- a/counselear_patients.xlsx
+++ b/counselear_patients.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FFCR_Project\Counselear Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12A499C-1526-41B6-B902-7349EEE1192B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>PatientName</t>
+    <t>patient_name</t>
   </si>
   <si>
     <t>Mark Widick</t>
@@ -28,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +98,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +150,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,24 +395,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>

--- a/counselear_patients.xlsx
+++ b/counselear_patients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FFCR_Project\Counselear Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12A499C-1526-41B6-B902-7349EEE1192B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992B1714-01AC-477B-A8D5-09127477A01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>1620084</t>
+  </si>
   <si>
     <t>patient_name</t>
   </si>
   <si>
-    <t>Mark Widick</t>
-  </si>
-  <si>
-    <t>Test Chair</t>
+    <t>MM0000520014</t>
+  </si>
+  <si>
+    <t>MM0000278002</t>
+  </si>
+  <si>
+    <t>MM0000478867</t>
+  </si>
+  <si>
+    <t>MM0000511691</t>
   </si>
 </sst>
 </file>
@@ -87,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,30 +406,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/counselear_patients.xlsx
+++ b/counselear_patients.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FFCR_Project\Counselear Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FFCR_Project\Counselear Project\FFCR_Gold_Full_Audio_Extractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992B1714-01AC-477B-A8D5-09127477A01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77232640-4472-4057-9AFF-238D7A41E274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="2775" windowWidth="18180" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>1620084</t>
+    <t>VisitDate</t>
+  </si>
+  <si>
+    <t>CPT_Code</t>
   </si>
   <si>
     <t>patient_name</t>
-  </si>
-  <si>
-    <t>MM0000520014</t>
-  </si>
-  <si>
-    <t>MM0000278002</t>
-  </si>
-  <si>
-    <t>MM0000478867</t>
-  </si>
-  <si>
-    <t>MM0000511691</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +95,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,45 +400,4861 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1903508</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44088</v>
+      </c>
+      <c r="C2">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1903508</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44088</v>
+      </c>
+      <c r="C3">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1635704</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44078</v>
+      </c>
+      <c r="C4">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1886638</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44074</v>
+      </c>
+      <c r="C5">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1922709</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44064</v>
+      </c>
+      <c r="C6">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1120426</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44036</v>
+      </c>
+      <c r="C7">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1918499</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44022</v>
+      </c>
+      <c r="C8">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1360562</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43990</v>
+      </c>
+      <c r="C9">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1348925</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43987</v>
+      </c>
+      <c r="C10">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1348925</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43987</v>
+      </c>
+      <c r="C11">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1304914</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C12">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1689953</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43966</v>
+      </c>
+      <c r="C13">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1811838</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43910</v>
+      </c>
+      <c r="C14">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1903290</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43899</v>
+      </c>
+      <c r="C15">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1705850</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43896</v>
+      </c>
+      <c r="C16">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1892806</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43896</v>
+      </c>
+      <c r="C17">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1208104</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C18">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1894743</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43889</v>
+      </c>
+      <c r="C19">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1035276</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43882</v>
+      </c>
+      <c r="C20">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1309455</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43847</v>
+      </c>
+      <c r="C21">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1206449</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43805</v>
+      </c>
+      <c r="C22">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1099041</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43805</v>
+      </c>
+      <c r="C23">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1048477</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43794</v>
+      </c>
+      <c r="C24">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1846573</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43791</v>
+      </c>
+      <c r="C25">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1091737</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43791</v>
+      </c>
+      <c r="C26">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1869879</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43791</v>
+      </c>
+      <c r="C27">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1884440</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43787</v>
+      </c>
+      <c r="C28">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1223718</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43784</v>
+      </c>
+      <c r="C29">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1114620</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43749</v>
+      </c>
+      <c r="C30">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1061085</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43745</v>
+      </c>
+      <c r="C31">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1343169</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43731</v>
+      </c>
+      <c r="C32">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1866699</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43731</v>
+      </c>
+      <c r="C33">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1861548</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43724</v>
+      </c>
+      <c r="C34">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1014155</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43721</v>
+      </c>
+      <c r="C35">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1157351</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43721</v>
+      </c>
+      <c r="C36">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1238114</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43714</v>
+      </c>
+      <c r="C37">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1862272</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C38">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1082162</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43696</v>
+      </c>
+      <c r="C39">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1509411</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43696</v>
+      </c>
+      <c r="C40">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1208391</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43693</v>
+      </c>
+      <c r="C41">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1061085</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43693</v>
+      </c>
+      <c r="C42">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1218937</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43689</v>
+      </c>
+      <c r="C43">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1827682</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43689</v>
+      </c>
+      <c r="C44">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1185751</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43675</v>
+      </c>
+      <c r="C45">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1132725</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43672</v>
+      </c>
+      <c r="C46">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1120426</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43668</v>
+      </c>
+      <c r="C47">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1686557</v>
+      </c>
+      <c r="B48" s="2">
+        <v>43661</v>
+      </c>
+      <c r="C48">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1686252</v>
+      </c>
+      <c r="B49" s="2">
+        <v>43654</v>
+      </c>
+      <c r="C49">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1686252</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43654</v>
+      </c>
+      <c r="C50">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1851813</v>
+      </c>
+      <c r="B51" s="2">
+        <v>43640</v>
+      </c>
+      <c r="C51">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1030166</v>
+      </c>
+      <c r="B52" s="2">
+        <v>43633</v>
+      </c>
+      <c r="C52">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1085453</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43630</v>
+      </c>
+      <c r="C53">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1827928</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43626</v>
+      </c>
+      <c r="C54">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1710529</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43619</v>
+      </c>
+      <c r="C55">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1808371</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43605</v>
+      </c>
+      <c r="C56">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1808371</v>
+      </c>
+      <c r="B57" s="2">
+        <v>43605</v>
+      </c>
+      <c r="C57">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1790278</v>
+      </c>
+      <c r="B58" s="2">
+        <v>43595</v>
+      </c>
+      <c r="C58">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1358155</v>
+      </c>
+      <c r="B59" s="2">
+        <v>43588</v>
+      </c>
+      <c r="C59">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1792487</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43570</v>
+      </c>
+      <c r="C60">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1320223</v>
+      </c>
+      <c r="B61" s="2">
+        <v>43567</v>
+      </c>
+      <c r="C61">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1830440</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43553</v>
+      </c>
+      <c r="C62">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1827264</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43549</v>
+      </c>
+      <c r="C63">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1793722</v>
+      </c>
+      <c r="B64" s="2">
+        <v>43542</v>
+      </c>
+      <c r="C64">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1786895</v>
+      </c>
+      <c r="B65" s="2">
+        <v>43532</v>
+      </c>
+      <c r="C65">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1625104</v>
+      </c>
+      <c r="B66" s="2">
+        <v>43507</v>
+      </c>
+      <c r="C66">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1279563</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43504</v>
+      </c>
+      <c r="C67">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1223718</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43500</v>
+      </c>
+      <c r="C68">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1813902</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43490</v>
+      </c>
+      <c r="C69">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1785726</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43472</v>
+      </c>
+      <c r="C70">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1232813</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43455</v>
+      </c>
+      <c r="C71">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1670318</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43451</v>
+      </c>
+      <c r="C72">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1617489</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43448</v>
+      </c>
+      <c r="C73">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1784339</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43444</v>
+      </c>
+      <c r="C74">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1686252</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43434</v>
+      </c>
+      <c r="C75">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1696644</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43434</v>
+      </c>
+      <c r="C76">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1782500</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43420</v>
+      </c>
+      <c r="C77">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1615455</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43416</v>
+      </c>
+      <c r="C78">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1670724</v>
+      </c>
+      <c r="B79" s="2">
+        <v>43413</v>
+      </c>
+      <c r="C79">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1226926</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43409</v>
+      </c>
+      <c r="C80">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1650714</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43409</v>
+      </c>
+      <c r="C81">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1717065</v>
+      </c>
+      <c r="B82" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C82">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1128595</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43371</v>
+      </c>
+      <c r="C83">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1017137</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43371</v>
+      </c>
+      <c r="C84">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1620084</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43364</v>
+      </c>
+      <c r="C85">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1711258</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43357</v>
+      </c>
+      <c r="C86">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1710529</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43353</v>
+      </c>
+      <c r="C87">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1710529</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43353</v>
+      </c>
+      <c r="C88">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1710529</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43353</v>
+      </c>
+      <c r="C89">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1619443</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43350</v>
+      </c>
+      <c r="C90">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1703749</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43350</v>
+      </c>
+      <c r="C91">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1232813</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43343</v>
+      </c>
+      <c r="C92">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1011380</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43322</v>
+      </c>
+      <c r="C93">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1312099</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43322</v>
+      </c>
+      <c r="C94">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1191270</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43304</v>
+      </c>
+      <c r="C95">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1335089</v>
+      </c>
+      <c r="B96" s="2">
+        <v>43301</v>
+      </c>
+      <c r="C96">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1556623</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43297</v>
+      </c>
+      <c r="C97">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1628343</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43294</v>
+      </c>
+      <c r="C98">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1628343</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43294</v>
+      </c>
+      <c r="C99">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1250081</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43280</v>
+      </c>
+      <c r="C100">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1188185</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43276</v>
+      </c>
+      <c r="C101">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1706786</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43276</v>
+      </c>
+      <c r="C102">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1650714</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43259</v>
+      </c>
+      <c r="C103">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1679067</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43255</v>
+      </c>
+      <c r="C104">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1699269</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43255</v>
+      </c>
+      <c r="C105">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1693743</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43241</v>
+      </c>
+      <c r="C106">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1687125</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43238</v>
+      </c>
+      <c r="C107">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1690501</v>
+      </c>
+      <c r="B108" s="2">
+        <v>43231</v>
+      </c>
+      <c r="C108">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1210611</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43227</v>
+      </c>
+      <c r="C109">
+        <v>69633</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1210611</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43227</v>
+      </c>
+      <c r="C110">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1636669</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43224</v>
+      </c>
+      <c r="C111">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1309455</v>
+      </c>
+      <c r="B112" s="2">
+        <v>43220</v>
+      </c>
+      <c r="C112">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1697621</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43217</v>
+      </c>
+      <c r="C113">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1703669</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43213</v>
+      </c>
+      <c r="C114">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1671248</v>
+      </c>
+      <c r="B115" s="2">
+        <v>43213</v>
+      </c>
+      <c r="C115">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1686252</v>
+      </c>
+      <c r="B116" s="2">
+        <v>43203</v>
+      </c>
+      <c r="C116">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1011550</v>
+      </c>
+      <c r="B117" s="2">
+        <v>43203</v>
+      </c>
+      <c r="C117">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1172217</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43199</v>
+      </c>
+      <c r="C118">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1686557</v>
+      </c>
+      <c r="B119" s="2">
+        <v>43196</v>
+      </c>
+      <c r="C119">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1676496</v>
+      </c>
+      <c r="B120" s="2">
+        <v>43185</v>
+      </c>
+      <c r="C120">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1013448</v>
+      </c>
+      <c r="B121" s="2">
+        <v>43168</v>
+      </c>
+      <c r="C121">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1211354</v>
+      </c>
+      <c r="B122" s="2">
+        <v>43168</v>
+      </c>
+      <c r="C122">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1185751</v>
+      </c>
+      <c r="B123" s="2">
+        <v>43161</v>
+      </c>
+      <c r="C123">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1185751</v>
+      </c>
+      <c r="B124" s="2">
+        <v>43161</v>
+      </c>
+      <c r="C124">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1272978</v>
+      </c>
+      <c r="B125" s="2">
+        <v>43154</v>
+      </c>
+      <c r="C125">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1641904</v>
+      </c>
+      <c r="B126" s="2">
+        <v>43154</v>
+      </c>
+      <c r="C126">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1654705</v>
+      </c>
+      <c r="B127" s="2">
+        <v>43147</v>
+      </c>
+      <c r="C127">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1654705</v>
+      </c>
+      <c r="B128" s="2">
+        <v>43147</v>
+      </c>
+      <c r="C128">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1617250</v>
+      </c>
+      <c r="B129" s="2">
+        <v>43143</v>
+      </c>
+      <c r="C129">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1026946</v>
+      </c>
+      <c r="B130" s="2">
+        <v>43140</v>
+      </c>
+      <c r="C130">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1690626</v>
+      </c>
+      <c r="B131" s="2">
+        <v>43133</v>
+      </c>
+      <c r="C131">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1690626</v>
+      </c>
+      <c r="B132" s="2">
+        <v>43133</v>
+      </c>
+      <c r="C132">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1353408</v>
+      </c>
+      <c r="B133" s="2">
+        <v>43133</v>
+      </c>
+      <c r="C133">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1359475</v>
+      </c>
+      <c r="B134" s="2">
+        <v>43126</v>
+      </c>
+      <c r="C134">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1625104</v>
+      </c>
+      <c r="B135" s="2">
+        <v>43126</v>
+      </c>
+      <c r="C135">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1676014</v>
+      </c>
+      <c r="B136" s="2">
+        <v>43126</v>
+      </c>
+      <c r="C136">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1628343</v>
+      </c>
+      <c r="B137" s="2">
+        <v>43119</v>
+      </c>
+      <c r="C137">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1649999</v>
+      </c>
+      <c r="B138" s="2">
+        <v>43119</v>
+      </c>
+      <c r="C138">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1138679</v>
+      </c>
+      <c r="B139" s="2">
+        <v>43115</v>
+      </c>
+      <c r="C139">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1675654</v>
+      </c>
+      <c r="B140" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C140">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1650732</v>
+      </c>
+      <c r="B141" s="2">
+        <v>43091</v>
+      </c>
+      <c r="C141">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1105819</v>
+      </c>
+      <c r="B142" s="2">
+        <v>43080</v>
+      </c>
+      <c r="C142">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1608457</v>
+      </c>
+      <c r="B143" s="2">
+        <v>43080</v>
+      </c>
+      <c r="C143">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1163410</v>
+      </c>
+      <c r="B144" s="2">
+        <v>43070</v>
+      </c>
+      <c r="C144">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1356509</v>
+      </c>
+      <c r="B145" s="2">
+        <v>43056</v>
+      </c>
+      <c r="C145">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1668510</v>
+      </c>
+      <c r="B146" s="2">
+        <v>43052</v>
+      </c>
+      <c r="C146">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1222254</v>
+      </c>
+      <c r="B147" s="2">
+        <v>43052</v>
+      </c>
+      <c r="C147">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1539947</v>
+      </c>
+      <c r="B148" s="2">
+        <v>43049</v>
+      </c>
+      <c r="C148">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1354535</v>
+      </c>
+      <c r="B149" s="2">
+        <v>43042</v>
+      </c>
+      <c r="C149">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1510957</v>
+      </c>
+      <c r="B150" s="2">
+        <v>43035</v>
+      </c>
+      <c r="C150">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1047679</v>
+      </c>
+      <c r="B151" s="2">
+        <v>43031</v>
+      </c>
+      <c r="C151">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1658976</v>
+      </c>
+      <c r="B152" s="2">
+        <v>43031</v>
+      </c>
+      <c r="C152">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1128595</v>
+      </c>
+      <c r="B153" s="2">
+        <v>43028</v>
+      </c>
+      <c r="C153">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1172217</v>
+      </c>
+      <c r="B154" s="2">
+        <v>43028</v>
+      </c>
+      <c r="C154">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1643767</v>
+      </c>
+      <c r="B155" s="2">
+        <v>43017</v>
+      </c>
+      <c r="C155">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1305077</v>
+      </c>
+      <c r="B156" s="2">
+        <v>43007</v>
+      </c>
+      <c r="C156">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1205560</v>
+      </c>
+      <c r="B157" s="2">
+        <v>43003</v>
+      </c>
+      <c r="C157">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1487040</v>
+      </c>
+      <c r="B158" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C158">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1020407</v>
+      </c>
+      <c r="B159" s="2">
+        <v>42965</v>
+      </c>
+      <c r="C159">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1145751</v>
+      </c>
+      <c r="B160" s="2">
+        <v>42958</v>
+      </c>
+      <c r="C160">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1145399</v>
+      </c>
+      <c r="B161" s="2">
+        <v>42951</v>
+      </c>
+      <c r="C161">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1643837</v>
+      </c>
+      <c r="B162" s="2">
+        <v>42951</v>
+      </c>
+      <c r="C162">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1147084</v>
+      </c>
+      <c r="B163" s="2">
+        <v>42951</v>
+      </c>
+      <c r="C163">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1341078</v>
+      </c>
+      <c r="B164" s="2">
+        <v>42947</v>
+      </c>
+      <c r="C164">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1625104</v>
+      </c>
+      <c r="B165" s="2">
+        <v>42944</v>
+      </c>
+      <c r="C165">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1625104</v>
+      </c>
+      <c r="B166" s="2">
+        <v>42944</v>
+      </c>
+      <c r="C166">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1646077</v>
+      </c>
+      <c r="B167" s="2">
+        <v>42944</v>
+      </c>
+      <c r="C167">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1658626</v>
+      </c>
+      <c r="B168" s="2">
+        <v>42923</v>
+      </c>
+      <c r="C168">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1163410</v>
+      </c>
+      <c r="B169" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C169">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1650732</v>
+      </c>
+      <c r="B170" s="2">
+        <v>42909</v>
+      </c>
+      <c r="C170">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1030166</v>
+      </c>
+      <c r="B171" s="2">
+        <v>42909</v>
+      </c>
+      <c r="C171">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1617953</v>
+      </c>
+      <c r="B172" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C172">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1132725</v>
+      </c>
+      <c r="B173" s="2">
+        <v>42902</v>
+      </c>
+      <c r="C173">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1034260</v>
+      </c>
+      <c r="B174" s="2">
+        <v>42898</v>
+      </c>
+      <c r="C174">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1153492</v>
+      </c>
+      <c r="B175" s="2">
+        <v>42891</v>
+      </c>
+      <c r="C175">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1222254</v>
+      </c>
+      <c r="B176" s="2">
+        <v>42888</v>
+      </c>
+      <c r="C176">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1211354</v>
+      </c>
+      <c r="B177" s="2">
+        <v>42877</v>
+      </c>
+      <c r="C177">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1110907</v>
+      </c>
+      <c r="B178" s="2">
+        <v>42874</v>
+      </c>
+      <c r="C178">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1504443</v>
+      </c>
+      <c r="B179" s="2">
+        <v>42867</v>
+      </c>
+      <c r="C179">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1619527</v>
+      </c>
+      <c r="B180" s="2">
+        <v>42846</v>
+      </c>
+      <c r="C180">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1068572</v>
+      </c>
+      <c r="B181" s="2">
+        <v>42842</v>
+      </c>
+      <c r="C181">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1305077</v>
+      </c>
+      <c r="B182" s="2">
+        <v>42842</v>
+      </c>
+      <c r="C182">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1023841</v>
+      </c>
+      <c r="B183" s="2">
+        <v>42835</v>
+      </c>
+      <c r="C183">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1633194</v>
+      </c>
+      <c r="B184" s="2">
+        <v>42821</v>
+      </c>
+      <c r="C184">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1631191</v>
+      </c>
+      <c r="B185" s="2">
+        <v>42821</v>
+      </c>
+      <c r="C185">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1616766</v>
+      </c>
+      <c r="B186" s="2">
+        <v>42807</v>
+      </c>
+      <c r="C186">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1616258</v>
+      </c>
+      <c r="B187" s="2">
+        <v>42804</v>
+      </c>
+      <c r="C187">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1608598</v>
+      </c>
+      <c r="B188" s="2">
+        <v>42804</v>
+      </c>
+      <c r="C188">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1631431</v>
+      </c>
+      <c r="B189" s="2">
+        <v>42800</v>
+      </c>
+      <c r="C189">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1023738</v>
+      </c>
+      <c r="B190" s="2">
+        <v>42783</v>
+      </c>
+      <c r="C190">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1521333</v>
+      </c>
+      <c r="B191" s="2">
+        <v>42783</v>
+      </c>
+      <c r="C191">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1614059</v>
+      </c>
+      <c r="B192" s="2">
+        <v>42779</v>
+      </c>
+      <c r="C192">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1275800</v>
+      </c>
+      <c r="B193" s="2">
+        <v>42776</v>
+      </c>
+      <c r="C193">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1620597</v>
+      </c>
+      <c r="B194" s="2">
+        <v>42769</v>
+      </c>
+      <c r="C194">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1279563</v>
+      </c>
+      <c r="B195" s="2">
+        <v>42765</v>
+      </c>
+      <c r="C195">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1619527</v>
+      </c>
+      <c r="B196" s="2">
+        <v>42755</v>
+      </c>
+      <c r="C196">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1207849</v>
+      </c>
+      <c r="B197" s="2">
+        <v>42751</v>
+      </c>
+      <c r="C197">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1614120</v>
+      </c>
+      <c r="B198" s="2">
+        <v>42744</v>
+      </c>
+      <c r="C198">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1036709</v>
+      </c>
+      <c r="B199" s="2">
+        <v>42741</v>
+      </c>
+      <c r="C199">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1226770</v>
+      </c>
+      <c r="B200" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C200">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1020407</v>
+      </c>
+      <c r="B201" s="2">
+        <v>42720</v>
+      </c>
+      <c r="C201">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1301089</v>
+      </c>
+      <c r="B202" s="2">
+        <v>42716</v>
+      </c>
+      <c r="C202">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1613995</v>
+      </c>
+      <c r="B203" s="2">
+        <v>42713</v>
+      </c>
+      <c r="C203">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1611463</v>
+      </c>
+      <c r="B204" s="2">
+        <v>42706</v>
+      </c>
+      <c r="C204">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1618339</v>
+      </c>
+      <c r="B205" s="2">
+        <v>42702</v>
+      </c>
+      <c r="C205">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1618339</v>
+      </c>
+      <c r="B206" s="2">
+        <v>42702</v>
+      </c>
+      <c r="C206">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1151056</v>
+      </c>
+      <c r="B207" s="2">
+        <v>42688</v>
+      </c>
+      <c r="C207">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1308494</v>
+      </c>
+      <c r="B208" s="2">
+        <v>42685</v>
+      </c>
+      <c r="C208">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1309391</v>
+      </c>
+      <c r="B209" s="2">
+        <v>42678</v>
+      </c>
+      <c r="C209">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1050514</v>
+      </c>
+      <c r="B210" s="2">
+        <v>42664</v>
+      </c>
+      <c r="C210">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1614824</v>
+      </c>
+      <c r="B211" s="2">
+        <v>42657</v>
+      </c>
+      <c r="C211">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1511524</v>
+      </c>
+      <c r="B212" s="2">
+        <v>42657</v>
+      </c>
+      <c r="C212">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1334146</v>
+      </c>
+      <c r="B213" s="2">
+        <v>42653</v>
+      </c>
+      <c r="C213">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1118707</v>
+      </c>
+      <c r="B214" s="2">
+        <v>42643</v>
+      </c>
+      <c r="C214">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1503907</v>
+      </c>
+      <c r="B215" s="2">
+        <v>42643</v>
+      </c>
+      <c r="C215">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1118707</v>
+      </c>
+      <c r="B216" s="2">
+        <v>42643</v>
+      </c>
+      <c r="C216">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1608457</v>
+      </c>
+      <c r="B217" s="2">
+        <v>42639</v>
+      </c>
+      <c r="C217">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1603014</v>
+      </c>
+      <c r="B218" s="2">
+        <v>42636</v>
+      </c>
+      <c r="C218">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1501385</v>
+      </c>
+      <c r="B219" s="2">
+        <v>42632</v>
+      </c>
+      <c r="C219">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1605461</v>
+      </c>
+      <c r="B220" s="2">
+        <v>42629</v>
+      </c>
+      <c r="C220">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1239143</v>
+      </c>
+      <c r="B221" s="2">
+        <v>42629</v>
+      </c>
+      <c r="C221">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1601813</v>
+      </c>
+      <c r="B222" s="2">
+        <v>42622</v>
+      </c>
+      <c r="C222">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1145751</v>
+      </c>
+      <c r="B223" s="2">
+        <v>42608</v>
+      </c>
+      <c r="C223">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1600530</v>
+      </c>
+      <c r="B224" s="2">
+        <v>42608</v>
+      </c>
+      <c r="C224">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1020407</v>
+      </c>
+      <c r="B225" s="2">
+        <v>42601</v>
+      </c>
+      <c r="C225">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1504227</v>
+      </c>
+      <c r="B226" s="2">
+        <v>42597</v>
+      </c>
+      <c r="C226">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1604502</v>
+      </c>
+      <c r="B227" s="2">
+        <v>42597</v>
+      </c>
+      <c r="C227">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1205560</v>
+      </c>
+      <c r="B228" s="2">
+        <v>42594</v>
+      </c>
+      <c r="C228">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1272600</v>
+      </c>
+      <c r="B229" s="2">
+        <v>42590</v>
+      </c>
+      <c r="C229">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1132725</v>
+      </c>
+      <c r="B230" s="2">
+        <v>42573</v>
+      </c>
+      <c r="C230">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1173410</v>
+      </c>
+      <c r="B231" s="2">
+        <v>42573</v>
+      </c>
+      <c r="C231">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1484332</v>
+      </c>
+      <c r="B232" s="2">
+        <v>42569</v>
+      </c>
+      <c r="C232">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1512863</v>
+      </c>
+      <c r="B233" s="2">
+        <v>42562</v>
+      </c>
+      <c r="C233">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1029160</v>
+      </c>
+      <c r="B234" s="2">
+        <v>42559</v>
+      </c>
+      <c r="C234">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1354535</v>
+      </c>
+      <c r="B235" s="2">
+        <v>42559</v>
+      </c>
+      <c r="C235">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1514226</v>
+      </c>
+      <c r="B236" s="2">
+        <v>42541</v>
+      </c>
+      <c r="C236">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1309286</v>
+      </c>
+      <c r="B237" s="2">
+        <v>42538</v>
+      </c>
+      <c r="C237">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1304904</v>
+      </c>
+      <c r="B238" s="2">
+        <v>42534</v>
+      </c>
+      <c r="C238">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1154781</v>
+      </c>
+      <c r="B239" s="2">
+        <v>42534</v>
+      </c>
+      <c r="C239">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1510949</v>
+      </c>
+      <c r="B240" s="2">
+        <v>42517</v>
+      </c>
+      <c r="C240">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1209091</v>
+      </c>
+      <c r="B241" s="2">
+        <v>42506</v>
+      </c>
+      <c r="C241">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1478881</v>
+      </c>
+      <c r="B242" s="2">
+        <v>42503</v>
+      </c>
+      <c r="C242">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1134855</v>
+      </c>
+      <c r="B243" s="2">
+        <v>42499</v>
+      </c>
+      <c r="C243">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1481134</v>
+      </c>
+      <c r="B244" s="2">
+        <v>42496</v>
+      </c>
+      <c r="C244">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1481134</v>
+      </c>
+      <c r="B245" s="2">
+        <v>42496</v>
+      </c>
+      <c r="C245">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1503338</v>
+      </c>
+      <c r="B246" s="2">
+        <v>42492</v>
+      </c>
+      <c r="C246">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1111819</v>
+      </c>
+      <c r="B247" s="2">
+        <v>42485</v>
+      </c>
+      <c r="C247">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1513637</v>
+      </c>
+      <c r="B248" s="2">
+        <v>42482</v>
+      </c>
+      <c r="C248">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1597937</v>
+      </c>
+      <c r="B249" s="2">
+        <v>42478</v>
+      </c>
+      <c r="C249">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1510389</v>
+      </c>
+      <c r="B250" s="2">
+        <v>42475</v>
+      </c>
+      <c r="C250">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1487040</v>
+      </c>
+      <c r="B251" s="2">
+        <v>42464</v>
+      </c>
+      <c r="C251">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1354535</v>
+      </c>
+      <c r="B252" s="2">
+        <v>42461</v>
+      </c>
+      <c r="C252">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1512863</v>
+      </c>
+      <c r="B253" s="2">
+        <v>42447</v>
+      </c>
+      <c r="C253">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1128595</v>
+      </c>
+      <c r="B254" s="2">
+        <v>42440</v>
+      </c>
+      <c r="C254">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1045713</v>
+      </c>
+      <c r="B255" s="2">
+        <v>42436</v>
+      </c>
+      <c r="C255">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1064563</v>
+      </c>
+      <c r="B256" s="2">
+        <v>42426</v>
+      </c>
+      <c r="C256">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1210673</v>
+      </c>
+      <c r="B257" s="2">
+        <v>42426</v>
+      </c>
+      <c r="C257">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1242811</v>
+      </c>
+      <c r="B258" s="2">
+        <v>42426</v>
+      </c>
+      <c r="C258">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1207849</v>
+      </c>
+      <c r="B259" s="2">
+        <v>42415</v>
+      </c>
+      <c r="C259">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1478714</v>
+      </c>
+      <c r="B260" s="2">
+        <v>42412</v>
+      </c>
+      <c r="C260">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1499739</v>
+      </c>
+      <c r="B261" s="2">
+        <v>42408</v>
+      </c>
+      <c r="C261">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1355356</v>
+      </c>
+      <c r="B262" s="2">
+        <v>42401</v>
+      </c>
+      <c r="C262">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1496856</v>
+      </c>
+      <c r="B263" s="2">
+        <v>42394</v>
+      </c>
+      <c r="C263">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1020256</v>
+      </c>
+      <c r="B264" s="2">
+        <v>42394</v>
+      </c>
+      <c r="C264">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1502545</v>
+      </c>
+      <c r="B265" s="2">
+        <v>42387</v>
+      </c>
+      <c r="C265">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1293335</v>
+      </c>
+      <c r="B266" s="2">
+        <v>42384</v>
+      </c>
+      <c r="C266">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1133577</v>
+      </c>
+      <c r="B267" s="2">
+        <v>42384</v>
+      </c>
+      <c r="C267">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1347828</v>
+      </c>
+      <c r="B268" s="2">
+        <v>42384</v>
+      </c>
+      <c r="C268">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1351786</v>
+      </c>
+      <c r="B269" s="2">
+        <v>42380</v>
+      </c>
+      <c r="C269">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1091561</v>
+      </c>
+      <c r="B270" s="2">
+        <v>42373</v>
+      </c>
+      <c r="C270">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1135181</v>
+      </c>
+      <c r="B271" s="2">
+        <v>42356</v>
+      </c>
+      <c r="C271">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1309391</v>
+      </c>
+      <c r="B272" s="2">
+        <v>42349</v>
+      </c>
+      <c r="C272">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1019060</v>
+      </c>
+      <c r="B273" s="2">
+        <v>42349</v>
+      </c>
+      <c r="C273">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1348389</v>
+      </c>
+      <c r="B274" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C274">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1081146</v>
+      </c>
+      <c r="B275" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C275">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1025503</v>
+      </c>
+      <c r="B276" s="2">
+        <v>42331</v>
+      </c>
+      <c r="C276">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1360562</v>
+      </c>
+      <c r="B277" s="2">
+        <v>42328</v>
+      </c>
+      <c r="C277">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1288719</v>
+      </c>
+      <c r="B278" s="2">
+        <v>42328</v>
+      </c>
+      <c r="C278">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1481238</v>
+      </c>
+      <c r="B279" s="2">
+        <v>42317</v>
+      </c>
+      <c r="C279">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1192529</v>
+      </c>
+      <c r="B280" s="2">
+        <v>42314</v>
+      </c>
+      <c r="C280">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1218306</v>
+      </c>
+      <c r="B281" s="2">
+        <v>42303</v>
+      </c>
+      <c r="C281">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1194922</v>
+      </c>
+      <c r="B282" s="2">
+        <v>42300</v>
+      </c>
+      <c r="C282">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1178311</v>
+      </c>
+      <c r="B283" s="2">
+        <v>42289</v>
+      </c>
+      <c r="C283">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1178311</v>
+      </c>
+      <c r="B284" s="2">
+        <v>42289</v>
+      </c>
+      <c r="C284">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1014696</v>
+      </c>
+      <c r="B285" s="2">
+        <v>42286</v>
+      </c>
+      <c r="C285">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1481134</v>
+      </c>
+      <c r="B286" s="2">
+        <v>42286</v>
+      </c>
+      <c r="C286">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1359426</v>
+      </c>
+      <c r="B287" s="2">
+        <v>42282</v>
+      </c>
+      <c r="C287">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1359426</v>
+      </c>
+      <c r="B288" s="2">
+        <v>42282</v>
+      </c>
+      <c r="C288">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1477376</v>
+      </c>
+      <c r="B289" s="2">
+        <v>42272</v>
+      </c>
+      <c r="C289">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1478881</v>
+      </c>
+      <c r="B290" s="2">
+        <v>42272</v>
+      </c>
+      <c r="C290">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1490009</v>
+      </c>
+      <c r="B291" s="2">
+        <v>42268</v>
+      </c>
+      <c r="C291">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1339743</v>
+      </c>
+      <c r="B292" s="2">
+        <v>42268</v>
+      </c>
+      <c r="C292">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1047970</v>
+      </c>
+      <c r="B293" s="2">
+        <v>42258</v>
+      </c>
+      <c r="C293">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1226770</v>
+      </c>
+      <c r="B294" s="2">
+        <v>42251</v>
+      </c>
+      <c r="C294">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1325690</v>
+      </c>
+      <c r="B295" s="2">
+        <v>42230</v>
+      </c>
+      <c r="C295">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1338180</v>
+      </c>
+      <c r="B296" s="2">
+        <v>42226</v>
+      </c>
+      <c r="C296">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1142199</v>
+      </c>
+      <c r="B297" s="2">
+        <v>42226</v>
+      </c>
+      <c r="C297">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1286037</v>
+      </c>
+      <c r="B298" s="2">
+        <v>42223</v>
+      </c>
+      <c r="C298">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1347483</v>
+      </c>
+      <c r="B299" s="2">
+        <v>42223</v>
+      </c>
+      <c r="C299">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1146949</v>
+      </c>
+      <c r="B300" s="2">
+        <v>42216</v>
+      </c>
+      <c r="C300">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1344611</v>
+      </c>
+      <c r="B301" s="2">
+        <v>42198</v>
+      </c>
+      <c r="C301">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1482539</v>
+      </c>
+      <c r="B302" s="2">
+        <v>42191</v>
+      </c>
+      <c r="C302">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1323651</v>
+      </c>
+      <c r="B303" s="2">
+        <v>42170</v>
+      </c>
+      <c r="C303">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1354376</v>
+      </c>
+      <c r="B304" s="2">
+        <v>42167</v>
+      </c>
+      <c r="C304">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1299906</v>
+      </c>
+      <c r="B305" s="2">
+        <v>42163</v>
+      </c>
+      <c r="C305">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1090643</v>
+      </c>
+      <c r="B306" s="2">
+        <v>42160</v>
+      </c>
+      <c r="C306">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1023841</v>
+      </c>
+      <c r="B307" s="2">
+        <v>42156</v>
+      </c>
+      <c r="C307">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1353408</v>
+      </c>
+      <c r="B308" s="2">
+        <v>42139</v>
+      </c>
+      <c r="C308">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1315377</v>
+      </c>
+      <c r="B309" s="2">
+        <v>42135</v>
+      </c>
+      <c r="C309">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1309391</v>
+      </c>
+      <c r="B310" s="2">
+        <v>42128</v>
+      </c>
+      <c r="C310">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1350536</v>
+      </c>
+      <c r="B311" s="2">
+        <v>42118</v>
+      </c>
+      <c r="C311">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1105774</v>
+      </c>
+      <c r="B312" s="2">
+        <v>42107</v>
+      </c>
+      <c r="C312">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1054739</v>
+      </c>
+      <c r="B313" s="2">
+        <v>42097</v>
+      </c>
+      <c r="C313">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1295699</v>
+      </c>
+      <c r="B314" s="2">
+        <v>42097</v>
+      </c>
+      <c r="C314">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1175166</v>
+      </c>
+      <c r="B315" s="2">
+        <v>42097</v>
+      </c>
+      <c r="C315">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1036273</v>
+      </c>
+      <c r="B316" s="2">
+        <v>42076</v>
+      </c>
+      <c r="C316">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1242811</v>
+      </c>
+      <c r="B317" s="2">
+        <v>42069</v>
+      </c>
+      <c r="C317">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1110975</v>
+      </c>
+      <c r="B318" s="2">
+        <v>42065</v>
+      </c>
+      <c r="C318">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1155077</v>
+      </c>
+      <c r="B319" s="2">
+        <v>42044</v>
+      </c>
+      <c r="C319">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1338689</v>
+      </c>
+      <c r="B320" s="2">
+        <v>42041</v>
+      </c>
+      <c r="C320">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1340272</v>
+      </c>
+      <c r="B321" s="2">
+        <v>42027</v>
+      </c>
+      <c r="C321">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1323651</v>
+      </c>
+      <c r="B322" s="2">
+        <v>41995</v>
+      </c>
+      <c r="C322">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1323651</v>
+      </c>
+      <c r="B323" s="2">
+        <v>41995</v>
+      </c>
+      <c r="C323">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1168824</v>
+      </c>
+      <c r="B324" s="2">
+        <v>41992</v>
+      </c>
+      <c r="C324">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1173889</v>
+      </c>
+      <c r="B325" s="2">
+        <v>41974</v>
+      </c>
+      <c r="C325">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1324996</v>
+      </c>
+      <c r="B326" s="2">
+        <v>41967</v>
+      </c>
+      <c r="C326">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1301269</v>
+      </c>
+      <c r="B327" s="2">
+        <v>41964</v>
+      </c>
+      <c r="C327">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1330921</v>
+      </c>
+      <c r="B328" s="2">
+        <v>41939</v>
+      </c>
+      <c r="C328">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1029773</v>
+      </c>
+      <c r="B329" s="2">
+        <v>41936</v>
+      </c>
+      <c r="C329">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1007522</v>
+      </c>
+      <c r="B330" s="2">
+        <v>41936</v>
+      </c>
+      <c r="C330">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1330301</v>
+      </c>
+      <c r="B331" s="2">
+        <v>41925</v>
+      </c>
+      <c r="C331">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1319566</v>
+      </c>
+      <c r="B332" s="2">
+        <v>41925</v>
+      </c>
+      <c r="C332">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1168824</v>
+      </c>
+      <c r="B333" s="2">
+        <v>41915</v>
+      </c>
+      <c r="C333">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1327403</v>
+      </c>
+      <c r="B334" s="2">
+        <v>41908</v>
+      </c>
+      <c r="C334">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1117981</v>
+      </c>
+      <c r="B335" s="2">
+        <v>41908</v>
+      </c>
+      <c r="C335">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1326958</v>
+      </c>
+      <c r="B336" s="2">
+        <v>41904</v>
+      </c>
+      <c r="C336">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1329554</v>
+      </c>
+      <c r="B337" s="2">
+        <v>41901</v>
+      </c>
+      <c r="C337">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1109541</v>
+      </c>
+      <c r="B338" s="2">
+        <v>41887</v>
+      </c>
+      <c r="C338">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1312099</v>
+      </c>
+      <c r="B339" s="2">
+        <v>41869</v>
+      </c>
+      <c r="C339">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1187721</v>
+      </c>
+      <c r="B340" s="2">
+        <v>41869</v>
+      </c>
+      <c r="C340">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1013293</v>
+      </c>
+      <c r="B341" s="2">
+        <v>41866</v>
+      </c>
+      <c r="C341">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1311332</v>
+      </c>
+      <c r="B342" s="2">
+        <v>41855</v>
+      </c>
+      <c r="C342">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1302672</v>
+      </c>
+      <c r="B343" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C343">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1295266</v>
+      </c>
+      <c r="B344" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C344">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1074941</v>
+      </c>
+      <c r="B345" s="2">
+        <v>41848</v>
+      </c>
+      <c r="C345">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1183190</v>
+      </c>
+      <c r="B346" s="2">
+        <v>41838</v>
+      </c>
+      <c r="C346">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1190976</v>
+      </c>
+      <c r="B347" s="2">
+        <v>41834</v>
+      </c>
+      <c r="C347">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1215416</v>
+      </c>
+      <c r="B348" s="2">
+        <v>41831</v>
+      </c>
+      <c r="C348">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1209375</v>
+      </c>
+      <c r="B349" s="2">
+        <v>41827</v>
+      </c>
+      <c r="C349">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1314413</v>
+      </c>
+      <c r="B350" s="2">
+        <v>41817</v>
+      </c>
+      <c r="C350">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1319445</v>
+      </c>
+      <c r="B351" s="2">
+        <v>41806</v>
+      </c>
+      <c r="C351">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1011390</v>
+      </c>
+      <c r="B352" s="2">
+        <v>41796</v>
+      </c>
+      <c r="C352">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1237925</v>
+      </c>
+      <c r="B353" s="2">
+        <v>41789</v>
+      </c>
+      <c r="C353">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1305995</v>
+      </c>
+      <c r="B354" s="2">
+        <v>41771</v>
+      </c>
+      <c r="C354">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1286075</v>
+      </c>
+      <c r="B355" s="2">
+        <v>41768</v>
+      </c>
+      <c r="C355">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1288790</v>
+      </c>
+      <c r="B356" s="2">
+        <v>41768</v>
+      </c>
+      <c r="C356">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1302709</v>
+      </c>
+      <c r="B357" s="2">
+        <v>41729</v>
+      </c>
+      <c r="C357">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1247408</v>
+      </c>
+      <c r="B358" s="2">
+        <v>41726</v>
+      </c>
+      <c r="C358">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1297659</v>
+      </c>
+      <c r="B359" s="2">
+        <v>41722</v>
+      </c>
+      <c r="C359">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1215416</v>
+      </c>
+      <c r="B360" s="2">
+        <v>41715</v>
+      </c>
+      <c r="C360">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1295733</v>
+      </c>
+      <c r="B361" s="2">
+        <v>41712</v>
+      </c>
+      <c r="C361">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1234023</v>
+      </c>
+      <c r="B362" s="2">
+        <v>41712</v>
+      </c>
+      <c r="C362">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1295733</v>
+      </c>
+      <c r="B363" s="2">
+        <v>41712</v>
+      </c>
+      <c r="C363">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1298646</v>
+      </c>
+      <c r="B364" s="2">
+        <v>41705</v>
+      </c>
+      <c r="C364">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1049418</v>
+      </c>
+      <c r="B365" s="2">
+        <v>41705</v>
+      </c>
+      <c r="C365">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1302672</v>
+      </c>
+      <c r="B366" s="2">
+        <v>41701</v>
+      </c>
+      <c r="C366">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1030762</v>
+      </c>
+      <c r="B367" s="2">
+        <v>41698</v>
+      </c>
+      <c r="C367">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1012526</v>
+      </c>
+      <c r="B368" s="2">
+        <v>41698</v>
+      </c>
+      <c r="C368">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1122803</v>
+      </c>
+      <c r="B369" s="2">
+        <v>41694</v>
+      </c>
+      <c r="C369">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1290453</v>
+      </c>
+      <c r="B370" s="2">
+        <v>41691</v>
+      </c>
+      <c r="C370">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>1276230</v>
+      </c>
+      <c r="B371" s="2">
+        <v>41684</v>
+      </c>
+      <c r="C371">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>1295266</v>
+      </c>
+      <c r="B372" s="2">
+        <v>41680</v>
+      </c>
+      <c r="C372">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>1226926</v>
+      </c>
+      <c r="B373" s="2">
+        <v>41680</v>
+      </c>
+      <c r="C373">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>1301089</v>
+      </c>
+      <c r="B374" s="2">
+        <v>41677</v>
+      </c>
+      <c r="C374">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>1294394</v>
+      </c>
+      <c r="B375" s="2">
+        <v>41659</v>
+      </c>
+      <c r="C375">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>1057798</v>
+      </c>
+      <c r="B376" s="2">
+        <v>41656</v>
+      </c>
+      <c r="C376">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>1110782</v>
+      </c>
+      <c r="B377" s="2">
+        <v>41656</v>
+      </c>
+      <c r="C377">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>1277421</v>
+      </c>
+      <c r="B378" s="2">
+        <v>41652</v>
+      </c>
+      <c r="C378">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>1242811</v>
+      </c>
+      <c r="B379" s="2">
+        <v>41652</v>
+      </c>
+      <c r="C379">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>1109541</v>
+      </c>
+      <c r="B380" s="2">
+        <v>41649</v>
+      </c>
+      <c r="C380">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>1093027</v>
+      </c>
+      <c r="B381" s="2">
+        <v>41649</v>
+      </c>
+      <c r="C381">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>1209375</v>
+      </c>
+      <c r="B382" s="2">
+        <v>41645</v>
+      </c>
+      <c r="C382">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>1047679</v>
+      </c>
+      <c r="B383" s="2">
+        <v>41645</v>
+      </c>
+      <c r="C383">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>1167691</v>
+      </c>
+      <c r="B384" s="2">
+        <v>41628</v>
+      </c>
+      <c r="C384">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>1020849</v>
+      </c>
+      <c r="B385" s="2">
+        <v>41624</v>
+      </c>
+      <c r="C385">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1279067</v>
+      </c>
+      <c r="B386" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C386">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>1060705</v>
+      </c>
+      <c r="B387" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C387">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>1292143</v>
+      </c>
+      <c r="B388" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C388">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1283714</v>
+      </c>
+      <c r="B389" s="2">
+        <v>41617</v>
+      </c>
+      <c r="C389">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>1036405</v>
+      </c>
+      <c r="B390" s="2">
+        <v>41614</v>
+      </c>
+      <c r="C390">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>1033670</v>
+      </c>
+      <c r="B391" s="2">
+        <v>41614</v>
+      </c>
+      <c r="C391">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>1024329</v>
+      </c>
+      <c r="B392" s="2">
+        <v>41603</v>
+      </c>
+      <c r="C392">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>1215214</v>
+      </c>
+      <c r="B393" s="2">
+        <v>41600</v>
+      </c>
+      <c r="C393">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1091737</v>
+      </c>
+      <c r="B394" s="2">
+        <v>41593</v>
+      </c>
+      <c r="C394">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>1091737</v>
+      </c>
+      <c r="B395" s="2">
+        <v>41593</v>
+      </c>
+      <c r="C395">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>1022950</v>
+      </c>
+      <c r="B396" s="2">
+        <v>41589</v>
+      </c>
+      <c r="C396">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>1283305</v>
+      </c>
+      <c r="B397" s="2">
+        <v>41589</v>
+      </c>
+      <c r="C397">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1273563</v>
+      </c>
+      <c r="B398" s="2">
+        <v>41579</v>
+      </c>
+      <c r="C398">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>1285136</v>
+      </c>
+      <c r="B399" s="2">
+        <v>41572</v>
+      </c>
+      <c r="C399">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>1271388</v>
+      </c>
+      <c r="B400" s="2">
+        <v>41568</v>
+      </c>
+      <c r="C400">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>1271388</v>
+      </c>
+      <c r="B401" s="2">
+        <v>41568</v>
+      </c>
+      <c r="C401">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>1024210</v>
+      </c>
+      <c r="B402" s="2">
+        <v>41565</v>
+      </c>
+      <c r="C402">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>1145436</v>
+      </c>
+      <c r="B403" s="2">
+        <v>41561</v>
+      </c>
+      <c r="C403">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>1049608</v>
+      </c>
+      <c r="B404" s="2">
+        <v>41551</v>
+      </c>
+      <c r="C404">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>1202145</v>
+      </c>
+      <c r="B405" s="2">
+        <v>41551</v>
+      </c>
+      <c r="C405">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>1030677</v>
+      </c>
+      <c r="B406" s="2">
+        <v>41547</v>
+      </c>
+      <c r="C406">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1030677</v>
+      </c>
+      <c r="B407" s="2">
+        <v>41547</v>
+      </c>
+      <c r="C407">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>1273265</v>
+      </c>
+      <c r="B408" s="2">
+        <v>41544</v>
+      </c>
+      <c r="C408">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>1276230</v>
+      </c>
+      <c r="B409" s="2">
+        <v>41537</v>
+      </c>
+      <c r="C409">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>1012471</v>
+      </c>
+      <c r="B410" s="2">
+        <v>41533</v>
+      </c>
+      <c r="C410">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>1248109</v>
+      </c>
+      <c r="B411" s="2">
+        <v>41498</v>
+      </c>
+      <c r="C411">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>1246875</v>
+      </c>
+      <c r="B412" s="2">
+        <v>41495</v>
+      </c>
+      <c r="C412">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>1273825</v>
+      </c>
+      <c r="B413" s="2">
+        <v>41481</v>
+      </c>
+      <c r="C413">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>1238569</v>
+      </c>
+      <c r="B414" s="2">
+        <v>41481</v>
+      </c>
+      <c r="C414">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>1118118</v>
+      </c>
+      <c r="B415" s="2">
+        <v>41477</v>
+      </c>
+      <c r="C415">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1157594</v>
+      </c>
+      <c r="B416" s="2">
+        <v>41477</v>
+      </c>
+      <c r="C416">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>1034354</v>
+      </c>
+      <c r="B417" s="2">
+        <v>41456</v>
+      </c>
+      <c r="C417">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>1033670</v>
+      </c>
+      <c r="B418" s="2">
+        <v>41453</v>
+      </c>
+      <c r="C418">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>1245206</v>
+      </c>
+      <c r="B419" s="2">
+        <v>41449</v>
+      </c>
+      <c r="C419">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>1271388</v>
+      </c>
+      <c r="B420" s="2">
+        <v>41449</v>
+      </c>
+      <c r="C420">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>1071109</v>
+      </c>
+      <c r="B421" s="2">
+        <v>41446</v>
+      </c>
+      <c r="C421">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>1242867</v>
+      </c>
+      <c r="B422" s="2">
+        <v>41432</v>
+      </c>
+      <c r="C422">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>1238994</v>
+      </c>
+      <c r="B423" s="2">
+        <v>41383</v>
+      </c>
+      <c r="C423">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>1010920</v>
+      </c>
+      <c r="B424" s="2">
+        <v>41383</v>
+      </c>
+      <c r="C424">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>1015408</v>
+      </c>
+      <c r="B425" s="2">
+        <v>41376</v>
+      </c>
+      <c r="C425">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>1210611</v>
+      </c>
+      <c r="B426" s="2">
+        <v>41372</v>
+      </c>
+      <c r="C426">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>1241689</v>
+      </c>
+      <c r="B427" s="2">
+        <v>41365</v>
+      </c>
+      <c r="C427">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>1183143</v>
+      </c>
+      <c r="B428" s="2">
+        <v>41362</v>
+      </c>
+      <c r="C428">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>1239459</v>
+      </c>
+      <c r="B429" s="2">
+        <v>41362</v>
+      </c>
+      <c r="C429">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>1026230</v>
+      </c>
+      <c r="B430" s="2">
+        <v>41334</v>
+      </c>
+      <c r="C430">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>1011390</v>
+      </c>
+      <c r="B431" s="2">
+        <v>41334</v>
+      </c>
+      <c r="C431">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>1030677</v>
+      </c>
+      <c r="B432" s="2">
+        <v>41331</v>
+      </c>
+      <c r="C432">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>1030677</v>
+      </c>
+      <c r="B433" s="2">
+        <v>41331</v>
+      </c>
+      <c r="C433">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1031397</v>
+      </c>
+      <c r="B434" s="2">
+        <v>41327</v>
+      </c>
+      <c r="C434">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>1108333</v>
+      </c>
+      <c r="B435" s="2">
+        <v>41313</v>
+      </c>
+      <c r="C435">
+        <v>69632</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>1210611</v>
+      </c>
+      <c r="B436" s="2">
+        <v>41311</v>
+      </c>
+      <c r="C436">
+        <v>69633</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>1017556</v>
+      </c>
+      <c r="B437" s="2">
+        <v>41306</v>
+      </c>
+      <c r="C437">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>1119706</v>
+      </c>
+      <c r="B438" s="2">
+        <v>41302</v>
+      </c>
+      <c r="C438">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1005937</v>
+      </c>
+      <c r="B439" s="2">
+        <v>41299</v>
+      </c>
+      <c r="C439">
+        <v>69631</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>1210611</v>
+      </c>
+      <c r="B440" s="2">
+        <v>41290</v>
+      </c>
+      <c r="C440">
+        <v>69633</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1210611</v>
+      </c>
+      <c r="B441" s="2">
+        <v>41290</v>
+      </c>
+      <c r="C441">
+        <v>69633</v>
       </c>
     </row>
   </sheetData>
